--- a/assets/disciplinas/LOQ4004.xlsx
+++ b/assets/disciplinas/LOQ4004.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EQD-7,EQN-10</t>
+    <t>EQD-6,EQN-10</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -148,7 +148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1040 -  Laboratório de Eletricidade  (Requisito fraco)
+    <t xml:space="preserve">LOB1056 -  Introdução aos Métodos Numéricos e Computacionais  (Requisito fraco)
 </t>
   </si>
   <si>

--- a/assets/disciplinas/LOQ4004.xlsx
+++ b/assets/disciplinas/LOQ4004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,8 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar a teoria clássica do controle automático de processos para análise e projeto 
-de sistemas de controle feedback.</t>
+    <t>8643537 - Fabio Rodolfo Miguel Batista</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -80,14 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8643537 - Fabio Rodolfo Miguel Batista</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução ao controle automático de processos. Modelagem de processos. Análise do 
-comportamento dinâmico de processos. Análise e projeto de sistemas de controle feedback.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -96,13 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1- INTRODUÇÃO AO CONTROLE AUTOMÁTICO DE PROCESSOS. - Introdução à teoria de controle de processos. - Malhas aberta e fechada. - Diagrama de blocos.
-2- MODELAGEM DE PROCESSOS. - Considerações de modelagem matemática para fins de controle de processos. - Transformada de Laplace. - Função de transferência e modelos entrada-saída.
-3- ANÁLISE DO COMPORTAMENTO DINÂMICO DE PROCESSOS. - Sistemas de 1ª ordem. - Sistemas de 2ª ordem e ordem superior.
-4- ANÁLISE E PROJETO DE SISTEMAS DE CONTROLE. - Comportamento dinâmico de processos controlados por sistemas de controle feedback. - Análise de estabilidade. Sintonia de controladores de realimentação.
-5- RESPOSTA EM FREQUÊNCIA. - Análise de sistemas de controle através de resposta em frequencia.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,33 +100,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Duas provas escritas: P1 e P2</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média das notas obtidas nas duas provas: N1=(P1 + P2)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Uma prova escrita: REC
 Média das notas N1 e REC:N2=(N1+REC)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) SMITH, c. A.; CORRIPIO, A. B. Princípios e Prática do Controle Automático de Processo.
-3ª ed. Rio de Janeiro: LTC, 2008.
-2) STHEPANOPOULOS, G. Chemical Process Control: An Introduction to Theory and Practice. Englewood Cliffs, N.J.: Prentice Hall, 1984.
-3) KWONG, W. H. Introdução ao Controle de Processos Químicos com MATLAB. Vols. 1 e 2. São Carlos: EdUFScar, 2002.
-4) OGATA, K. Engenharia de Controle Moderno. 5ª ed. São Paulo: Pearson Prentice Hall, 2011.
-5) Seborg, D. E.; EDGAR, T. F.; MELLICHAMP, D. A. Process Dynamics and Control. 2 ed. New York: John Wiley &amp; Sons, 2003.
-6) COUGHANOWR, D. R.; KOPPEL, L. B. Análise e Controle de Processos. Rio de Janeiro:  Guanabara Dois, 1978.
-7) PERRY, R. H.; CHILTON, C. H. Manual de Engenharia Química. 5ª ed. Rio de Janeiro: Guanabara Dois, 1980. Seção 22.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -509,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,122 +612,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4004.xlsx
+++ b/assets/disciplinas/LOQ4004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,24 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar a teoria clássica do controle automático de processos para análise e projeto 
+de sistemas de controle feedback.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8643537 - Fabio Rodolfo Miguel Batista</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução ao controle automático de processos. Modelagem de processos. Análise do 
+comportamento dinâmico de processos. Análise e projeto de sistemas de controle feedback.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +96,13 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1- INTRODUÇÃO AO CONTROLE AUTOMÁTICO DE PROCESSOS. - Introdução à teoria de controle de processos. - Malhas aberta e fechada. - Diagrama de blocos.
+2- MODELAGEM DE PROCESSOS. - Considerações de modelagem matemática para fins de controle de processos. - Transformada de Laplace. - Função de transferência e modelos entrada-saída.
+3- ANÁLISE DO COMPORTAMENTO DINÂMICO DE PROCESSOS. - Sistemas de 1ª ordem. - Sistemas de 2ª ordem e ordem superior.
+4- ANÁLISE E PROJETO DE SISTEMAS DE CONTROLE. - Comportamento dinâmico de processos controlados por sistemas de controle feedback. - Análise de estabilidade. Sintonia de controladores de realimentação.
+5- RESPOSTA EM FREQUÊNCIA. - Análise de sistemas de controle através de resposta em frequencia.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,23 +112,33 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Duas provas escritas: P1 e P2</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas escritas: P1 e P2</t>
+    <t>Média das notas obtidas nas duas provas: N1=(P1 + P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
-  </si>
-  <si>
-    <t>Média das notas obtidas nas duas provas: N1=(P1 + P2)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Uma prova escrita: REC
 Média das notas N1 e REC:N2=(N1+REC)/2</t>
+  </si>
+  <si>
+    <t>Bibliografia:</t>
+  </si>
+  <si>
+    <t>1) SMITH, c. A.; CORRIPIO, A. B. Princípios e Prática do Controle Automático de Processo.
+3ª ed. Rio de Janeiro: LTC, 2008.
+2) STHEPANOPOULOS, G. Chemical Process Control: An Introduction to Theory and Practice. Englewood Cliffs, N.J.: Prentice Hall, 1984.
+3) KWONG, W. H. Introdução ao Controle de Processos Químicos com MATLAB. Vols. 1 e 2. São Carlos: EdUFScar, 2002.
+4) OGATA, K. Engenharia de Controle Moderno. 5ª ed. São Paulo: Pearson Prentice Hall, 2011.
+5) Seborg, D. E.; EDGAR, T. F.; MELLICHAMP, D. A. Process Dynamics and Control. 2 ed. New York: John Wiley &amp; Sons, 2003.
+6) COUGHANOWR, D. R.; KOPPEL, L. B. Análise e Controle de Processos. Rio de Janeiro:  Guanabara Dois, 1978.
+7) PERRY, R. H.; CHILTON, C. H. Manual de Engenharia Química. 5ª ed. Rio de Janeiro: Guanabara Dois, 1980. Seção 22.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -612,114 +634,122 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
